--- a/Data_LCI/LCI_modelling.xlsx
+++ b/Data_LCI/LCI_modelling.xlsx
@@ -1,41 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philippea\Desktop\Impmet_LCI_auto - Copie\Data_LCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD20C898-133F-42C4-B53B-748B54B87DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PR1_LCI_Modelling" sheetId="2" r:id="rId1"/>
+    <sheet name="Info" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>This file is intended to be the first step to the conversion of the LCI file to BW format
+For each production route, in the LCI document a new sheet will be created with the name "PR1/2/3_Commodity_Region/City/Site name_Type of deposit/Type of process", e.g. "PR1_Li2CO3_ChileAtacama_Brines"</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -54,30 +55,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,36 +366,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F11E642-D7A1-49D3-A95A-9A66A6998639}">
+  <dimension ref="B2:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2:N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:N8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>